--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1501726.04456266</v>
+        <v>1495879.923358856</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11672620.63342789</v>
+        <v>10956994.25395845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995036.4966263953</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10475490.59458932</v>
+        <v>10769839.70377805</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.2258108102156</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>4.076420780615537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>119.3310866359318</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.360597680915987</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.5644081416976</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>100.0187444053789</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.84481919370722</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>21.62032152353325</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>148.1873837356349</v>
       </c>
       <c r="T3" t="n">
-        <v>151.3087777248781</v>
+        <v>195.0661150959129</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>103.4740412410951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>18.38275699775171</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2197470510665</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>361.6934256929885</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885155</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.315783973424</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2883930586139</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906496</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833728</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>9.411654626091346</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1952120853246</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>118.4960408938909</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>154.6528871281405</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>190.1450036028931</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>101.814517215707</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3222619078506</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394026</v>
+        <v>99.90681807664352</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>45.44580843958693</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183558</v>
       </c>
       <c r="S9" t="n">
-        <v>134.1392412509879</v>
+        <v>147.9721212459917</v>
       </c>
       <c r="T9" t="n">
-        <v>192.01765159098</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8084047615432</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.28604738508513</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4932332059747</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>102.9230408272514</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.3374237151332</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>180.3146850449999</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.751652965871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>292.866007475616</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9815661438954</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9084722555548</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>88.71803683887337</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>15.68421103027192</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>126.4532799462839</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.3497889135248</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7811817581027</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>153.9723986899714</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.5019329355424</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4395204323222</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.2229882419562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2076770009208</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>156.0551722706138</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>219.4517041866526</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>281.6778446725259</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>90.00079239153432</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>93.4044447618827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>161.0175085755505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1690.869741391888</v>
+        <v>2114.349404136595</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.907224451476</v>
+        <v>1745.386887196183</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.789627703379</v>
+        <v>1387.121188589432</v>
       </c>
       <c r="E2" t="n">
-        <v>1317.789627703379</v>
+        <v>1001.332935991188</v>
       </c>
       <c r="F2" t="n">
-        <v>906.8037229137719</v>
+        <v>590.3470312015806</v>
       </c>
       <c r="G2" t="n">
-        <v>489.7159411501994</v>
+        <v>173.2373706870187</v>
       </c>
       <c r="H2" t="n">
-        <v>171.4928259227089</v>
+        <v>173.2373706870187</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>240.4397543365561</v>
+        <v>239.5208398512389</v>
       </c>
       <c r="K2" t="n">
-        <v>643.9068673566015</v>
+        <v>319.3563181321766</v>
       </c>
       <c r="L2" t="n">
-        <v>1071.061092227492</v>
+        <v>868.7856527384603</v>
       </c>
       <c r="M2" t="n">
-        <v>1702.778903210804</v>
+        <v>1496.738196660084</v>
       </c>
       <c r="N2" t="n">
-        <v>1897.113116102787</v>
+        <v>2120.21967170072</v>
       </c>
       <c r="O2" t="n">
-        <v>2444.274320869864</v>
+        <v>2494.726756291967</v>
       </c>
       <c r="P2" t="n">
-        <v>2555.008646119391</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2633.671635888809</v>
       </c>
       <c r="S2" t="n">
-        <v>2433.777728637814</v>
+        <v>2633.671635888809</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.777728637814</v>
+        <v>2418.775999924064</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.777728637814</v>
+        <v>2165.082546369136</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.777728637814</v>
+        <v>2165.082546369136</v>
       </c>
       <c r="W2" t="n">
-        <v>2081.009073367699</v>
+        <v>2165.082546369136</v>
       </c>
       <c r="X2" t="n">
-        <v>2081.009073367699</v>
+        <v>2165.082546369136</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.869741391888</v>
+        <v>2165.082546369136</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.2215397494255</v>
+        <v>965.1304038988728</v>
       </c>
       <c r="C3" t="n">
-        <v>790.7685104682985</v>
+        <v>790.6773746177458</v>
       </c>
       <c r="D3" t="n">
-        <v>641.8341008070472</v>
+        <v>641.7429649564946</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5966458015918</v>
+        <v>482.5055099510391</v>
       </c>
       <c r="F3" t="n">
-        <v>336.0620878284767</v>
+        <v>337.4909562725566</v>
       </c>
       <c r="G3" t="n">
-        <v>198.6206901876986</v>
+        <v>200.0378524679827</v>
       </c>
       <c r="H3" t="n">
-        <v>97.70471233250322</v>
+        <v>99.0088177150747</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>119.4076749861767</v>
+        <v>310.109008961399</v>
       </c>
       <c r="L3" t="n">
-        <v>623.7692148522954</v>
+        <v>811.9794026989938</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.3145643194</v>
+        <v>1449.617702133883</v>
       </c>
       <c r="N3" t="n">
-        <v>1593.852047705449</v>
+        <v>1645.290452790177</v>
       </c>
       <c r="O3" t="n">
-        <v>2143.288056458172</v>
+        <v>2191.996692751182</v>
       </c>
       <c r="P3" t="n">
-        <v>2567.255824939009</v>
+        <v>2613.773581115996</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2568.880866543172</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2419.414077405807</v>
+        <v>2463.523042375423</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.576928188759</v>
+        <v>2266.486562480561</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.438140699924</v>
+        <v>2038.347004849372</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.286032468182</v>
+        <v>1803.194896617629</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.04867573998</v>
+        <v>1548.957539889428</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.197175534447</v>
+        <v>1341.106039683895</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.436876769493</v>
+        <v>1133.345740918941</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.7041760769112</v>
+        <v>344.7247774562539</v>
       </c>
       <c r="C4" t="n">
-        <v>367.7041760769112</v>
+        <v>175.788594528347</v>
       </c>
       <c r="D4" t="n">
-        <v>217.5875366645755</v>
+        <v>175.788594528347</v>
       </c>
       <c r="E4" t="n">
-        <v>69.67444308218234</v>
+        <v>71.26936095148328</v>
       </c>
       <c r="F4" t="n">
-        <v>69.67444308218234</v>
+        <v>71.26936095148328</v>
       </c>
       <c r="G4" t="n">
-        <v>69.67444308218234</v>
+        <v>71.26936095148328</v>
       </c>
       <c r="H4" t="n">
-        <v>69.67444308218234</v>
+        <v>71.26936095148328</v>
       </c>
       <c r="I4" t="n">
-        <v>69.67444308218234</v>
+        <v>71.26936095148328</v>
       </c>
       <c r="J4" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>152.8477849184295</v>
+        <v>152.6313247131529</v>
       </c>
       <c r="L4" t="n">
-        <v>337.680779819248</v>
+        <v>336.0342731039142</v>
       </c>
       <c r="M4" t="n">
-        <v>542.9503805384859</v>
+        <v>539.7960902856131</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7737453745901</v>
+        <v>744.1475233066392</v>
       </c>
       <c r="O4" t="n">
-        <v>922.868640763189</v>
+        <v>916.8828514249453</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.316217361805</v>
+        <v>1041.167083351322</v>
       </c>
       <c r="Q4" t="n">
-        <v>1051.734536782164</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.734536782164</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.734536782164</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.734536782164</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="U4" t="n">
-        <v>762.5823603598442</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="V4" t="n">
-        <v>595.6937269749285</v>
+        <v>1043.779963221472</v>
       </c>
       <c r="W4" t="n">
-        <v>595.6937269749285</v>
+        <v>754.362793184511</v>
       </c>
       <c r="X4" t="n">
-        <v>367.7041760769112</v>
+        <v>526.3732422864937</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.7041760769112</v>
+        <v>526.3732422864937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1360.218342260061</v>
+        <v>2113.484044838089</v>
       </c>
       <c r="C5" t="n">
-        <v>1360.218342260061</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D5" t="n">
-        <v>1360.218342260061</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E5" t="n">
-        <v>974.430089661817</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F5" t="n">
-        <v>563.4441848722093</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>146.9919235640839</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>146.9919235640839</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
-        <v>125.8997233870233</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>608.5986938974718</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>846.2214751156638</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1142.292041673267</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N5" t="n">
-        <v>1447.767147908852</v>
+        <v>2135.742710417299</v>
       </c>
       <c r="O5" t="n">
-        <v>1758.668415689754</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2277.553464068625</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2448.259651016315</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2236.241780077746</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2236.241780077746</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2099.586837594297</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.818182324183</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.818182324183</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.818182324183</v>
+        <v>2478.830939477471</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949.8902083093631</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C6" t="n">
-        <v>775.4371790282361</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D6" t="n">
-        <v>626.5027693669847</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E6" t="n">
-        <v>467.2653143615291</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F6" t="n">
-        <v>320.7307563884142</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>183.6293921686807</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H6" t="n">
-        <v>85.9974213009382</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>201.9455071369554</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>389.6842751995872</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>966.4070903028428</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1230.34662179833</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N6" t="n">
-        <v>1515.680492231663</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O6" t="n">
-        <v>2144.409140067085</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P6" t="n">
-        <v>2316.738101020794</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2589.992766140986</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S6" t="n">
-        <v>2446.841948662051</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T6" t="n">
-        <v>2251.223226128891</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U6" t="n">
-        <v>2023.106809259862</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V6" t="n">
-        <v>1787.954701028119</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1533.717344299918</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X6" t="n">
-        <v>1325.865844094385</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y6" t="n">
-        <v>1118.105545329431</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>791.1012047287977</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="C7" t="n">
-        <v>622.1650218008908</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="D7" t="n">
-        <v>472.0483823885551</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E7" t="n">
-        <v>324.135288806162</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F7" t="n">
-        <v>177.2453413082516</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7386194637149</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H7" t="n">
-        <v>167.7386194637149</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J7" t="n">
-        <v>54.03452733018415</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
-        <v>187.5436166159875</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L7" t="n">
-        <v>413.9157199341317</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M7" t="n">
-        <v>662.9824862666723</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N7" t="n">
-        <v>911.5616180092733</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O7" t="n">
-        <v>1125.148384357428</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P7" t="n">
-        <v>1284.388078993472</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q7" t="n">
-        <v>1311.202309361123</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1193.542248702568</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1193.542248702568</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>1193.542248702568</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.542248702568</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.542248702568</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W7" t="n">
-        <v>1193.542248702568</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X7" t="n">
-        <v>1193.542248702568</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="Y7" t="n">
-        <v>972.7496695590374</v>
+        <v>368.1977120421399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1633.570857233913</v>
+        <v>1318.690691920174</v>
       </c>
       <c r="C8" t="n">
-        <v>1633.570857233913</v>
+        <v>1318.690691920174</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>1318.690691920174</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>1318.690691920174</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>907.7047871305659</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>490.6170053669933</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>172.3938901395026</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>241.340818553348</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>644.8079315733916</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>1032.360139381993</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1219.059552207398</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1413.393765099378</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>1960.554969866453</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2389.870016205745</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2635.045976980644</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502977</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.236357502977</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.236357502977</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.170697298035</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y8" t="n">
-        <v>2020.170697298035</v>
+        <v>1318.690691920174</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3045644835107</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8515352023837</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9171255411325</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>336.9631520452694</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4559591202886</v>
+        <v>199.5217544044921</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>98.60577654929665</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>171.3601713965078</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480865</v>
+        <v>500.7885757023164</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>843.4113519543077</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1483.956701421411</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>2136.13058072412</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>2295.642893392879</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2404.332520920176</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.061870084021</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.567687002215</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610463172942</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.52116543401</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.369057202267</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131700474065</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.280200268533</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519901503579</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.9496089228105</v>
+        <v>132.7878360902039</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9496089228105</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9496089228105</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0365153404174</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>153.7488491352219</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>338.5818440360393</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>543.8514447552762</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>749.6748095913796</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897099</v>
+        <v>923.7697049799775</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1049.217281578592</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="U10" t="n">
-        <v>1161.416227170245</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="V10" t="n">
-        <v>906.731738964358</v>
+        <v>1052.635600998952</v>
       </c>
       <c r="W10" t="n">
-        <v>906.731738964358</v>
+        <v>763.2184309619911</v>
       </c>
       <c r="X10" t="n">
-        <v>678.7421880663406</v>
+        <v>535.2288800639737</v>
       </c>
       <c r="Y10" t="n">
-        <v>457.9496089228105</v>
+        <v>314.4363009204436</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.181533884357</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1565.219016943946</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.953318337195</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>821.1650657389509</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2320.781373948479</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2320.781373948479</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2320.781373948479</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2129.257206776238</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1760.294689835826</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.158644335826</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1192.370391737582</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>781.3844869479742</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>366.4838273864884</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>70.65957741111868</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>70.65957741111868</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>273.8290680701735</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>629.0659865567636</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1106.670557994393</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1669.767105711756</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2246.588952649335</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2777.930204723191</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3196.916669494943</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3463.38530882239</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3532.978870555934</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3532.978870555934</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3532.978870555934</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3279.462137077251</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3279.462137077251</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3279.462137077251</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2905.996378816171</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2515.85704684036</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5470294580272</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0940001769002</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1595905156489</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9221355101935</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3875775370784</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.1163934405584</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>86.50221481543375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>70.65957741111868</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>172.8480872403089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.276011068463</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>666.5344960160594</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.63679748643</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1633.589952959414</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2065.98520733901</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2393.687453374362</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.828530022578</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.828530022578</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.097944218251</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.825430164185</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.763630408526</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.611522176783</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.374165448582</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.522665243049</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.762366478095</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>226.1872528555342</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>226.1872528555342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>226.1872528555342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>226.1872528555342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>226.1872528555342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>70.65957741111868</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>70.65957741111868</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>70.65957741111868</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>121.1218885249553</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>333.8838038080216</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>661.6722386096744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1017.668306872638</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1370.634200744498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1680.639037406068</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1922.381047931594</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2006.315605393203</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1919.950016569423</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1729.607066637785</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.169704777223</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1219.071041139929</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>964.3865529340422</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>674.9693828970817</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>446.9798319990643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>226.1872528555342</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244855</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420924</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>333.5348535420924</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,43 +5761,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.662761261515</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.978273055629</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>2505.71655096576</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2357.803457383367</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3678.660617711126</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967227</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>551.263652184387</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3505586019938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>290.7328980097349</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>210.0515402467368</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>7.32812118887243</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.5888300519565</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2027694276609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>36.14651360027011</v>
+        <v>185.2684807830938</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>66.98553110338656</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>418.9459514760947</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.730860573081</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>191.4694788103614</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>207.4678568043425</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.0981188384308</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>246.3179278901616</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.4945564668041</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>174.3683565756831</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35.02020248490103</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3122304198893</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.1734769497277</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.97712081636868</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.0767385495117</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>94.05820955627109</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.468966021655064</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.73277020259155</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4.845153664065094</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.21102825632966</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.506629716718379</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>31.91821458107483</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981678.8426675547</v>
+        <v>983721.8266484198</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>961060.5173054414</v>
+        <v>983039.0855685622</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>935497.9998656046</v>
+        <v>983039.0855685626</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773342.9123346951</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794754.1901389312</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651775</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>438141.5280493375</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26352,10 +26352,10 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>788872.8219169304</v>
+        <v>787455.5478918896</v>
       </c>
       <c r="C3" t="n">
-        <v>142513.6350285947</v>
+        <v>4906.247008498157</v>
       </c>
       <c r="D3" t="n">
-        <v>162483.517964051</v>
+        <v>-1.448949315429976e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>175476.4059383954</v>
+        <v>775688.3472765876</v>
       </c>
       <c r="F3" t="n">
-        <v>48294.67755775015</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>262741.5336466231</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45829.42896872339</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
-        <v>12697.81468984595</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69659.69769492949</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191567.1355176184</v>
+        <v>190891.9800909049</v>
       </c>
       <c r="C4" t="n">
-        <v>163524.6914359721</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>130249.3556020765</v>
+        <v>189891.8124216195</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029938</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6747.506807693719</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85933.26903271279</v>
+        <v>86500.62127051741</v>
       </c>
       <c r="C5" t="n">
-        <v>89345.0748969909</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>86618.07783747552</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>78380.67257197217</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553222.1203020848</v>
+        <v>-551697.0430881344</v>
       </c>
       <c r="C6" t="n">
-        <v>117767.7048036192</v>
+        <v>231734.9688975843</v>
       </c>
       <c r="D6" t="n">
-        <v>126937.14323754</v>
+        <v>236641.215906085</v>
       </c>
       <c r="E6" t="n">
-        <v>169742.943936832</v>
+        <v>-379589.0560453054</v>
       </c>
       <c r="F6" t="n">
-        <v>304718.6711119214</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="G6" t="n">
-        <v>133705.136839016</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856395</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.6704856394</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="J6" t="n">
-        <v>227032.6536595913</v>
+        <v>223738.2988310014</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856394</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856391</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="M6" t="n">
-        <v>350617.2415169158</v>
+        <v>268021.6944155684</v>
       </c>
       <c r="N6" t="n">
-        <v>383748.8557957934</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="O6" t="n">
-        <v>326786.9727907098</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312824</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>588.0881844225519</v>
+      </c>
+      <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
-      <c r="C3" t="n">
-        <v>749.9809564976108</v>
-      </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>593.4761003380614</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1132.082281629449</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>883.2447176389834</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>588.0881844225519</v>
       </c>
       <c r="C3" t="n">
-        <v>156.5048561595457</v>
+        <v>5.387915915513207</v>
       </c>
       <c r="D3" t="n">
-        <v>189.7254341522337</v>
+        <v>-3.324008123650189e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0703099434536</v>
+        <v>774.4994000036125</v>
       </c>
       <c r="F3" t="n">
-        <v>42.30558103615067</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>235.893218712225</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9032638670462</v>
+        <v>513.9467938544879</v>
       </c>
       <c r="F4" t="n">
-        <v>51.84326223669072</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>289.463570460665</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670462</v>
+        <v>513.9467938544879</v>
       </c>
       <c r="N4" t="n">
-        <v>51.84326223669072</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>289.463570460665</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670462</v>
+        <v>513.9467938544879</v>
       </c>
       <c r="N4" t="n">
-        <v>51.84326223669072</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>289.463570460665</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.508030853265</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350.6066208400674</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761995</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459281</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.504804251686267</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>43.71062515663519</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>42.95992140547406</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>123.5587419097205</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>129.6100444894</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>205.5352037822504</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>86.91789627276148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>21.04041597049212</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>192.463865411521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>157.226900056716</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>79.38944126677023</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>212.6518631149661</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>179.5860970755759</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>284.4234214403466</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371354271</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>36.92781481695653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>123.2665578794172</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176945</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>129.1731816677916</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001188</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>2.3641736057188</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>24.21209293956766</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>91.14480293447411</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>200.6562795683762</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>300.731748298453</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>373.0843262844698</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>415.1281986451715</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>421.8454069024201</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>398.3366556105537</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>339.9711197193708</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>255.3041524645662</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.5085202602337</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>53.87360604031721</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.34916995903405</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.189133888457504</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.26494439668247</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.21669983111754</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>43.55181365770786</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>119.5095054777943</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>204.2607800555197</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>274.6538261305512</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>320.5080605102907</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>328.9909551704991</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>300.9624503808507</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>241.5488997489535</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>161.4690426361693</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>78.53751262910988</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.49578736820288</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.098613598908726</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08322002609753096</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.060486889942307</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>9.428692530577969</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>31.89173301753774</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>74.97642311892106</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>123.2092950314789</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>157.6654781646953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>166.2361403934108</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>162.2834165308987</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>149.8950014983908</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>128.2610689435676</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>88.80131584780533</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>47.68334688776952</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.48139425472183</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>4.531171257026218</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05784473945139861</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090895</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625589</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115544</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066899</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611376</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014944</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682859</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658691</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485902</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775962</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330909</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325349</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282135</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>13.1981573349479</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674106</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5797930774315</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307779</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859909</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>260.491027126156</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605116</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911979</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240738</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>383.813367425716</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>308.04406494333</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.9192996028912</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526432</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969226</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993435</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651429</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351908</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777208</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855604</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711387</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600316</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932508</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840047</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>191.1590805184402</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>163.569617135151</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311392</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>60.8099313251997</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567081</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965196</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>2.385833569198235</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>24.43391804055143</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227262</v>
+        <v>91.97984867651505</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>202.4946418937389</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>303.4869768779002</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>376.5024309712508</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>418.9314987074799</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>425.7102483359644</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>401.9861157822494</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>343.085849542668</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>257.6431848457561</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>149.8691179411488</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>54.36718245810484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>10.44398644916528</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.1908666855358588</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>1.276533498840358</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>12.32862615985294</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>43.95082441182814</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>120.6044214847376</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>206.1321659070416</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>277.1701353512805</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>323.4444746842435</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>332.0050874900633</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>303.7197925947058</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>243.7619099671559</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>162.9483813607447</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>79.25705355080756</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>23.71104985784612</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>5.145325813308285</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.083982467028971</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.070202803888307</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>9.515075838206958</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>32.18391704784111</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>75.66333823490332</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>124.3381075790233</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>159.1099695889944</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>167.7591540676916</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>163.7702163441081</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>151.2683017714128</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>129.4361645720912</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>89.61489115104727</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>48.12020970937788</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>18.6507161368535</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>4.572684707522766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.05837469839390774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.551084549264113</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>46.60879464015111</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>175.4556870855049</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>386.2676122631054</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>578.9150212334554</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>718.1952750079971</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>799.1306248609727</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>812.0613938365696</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>766.8065468498244</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>654.4516470398665</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>491.4659316193453</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>285.8820648177121</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>103.7078391663561</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.92237261440366</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.364086763941129</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.435044907655796</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>23.51740739762309</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>83.83816896972807</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>230.0583436658487</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>246.3544933462318</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>528.7144655855271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>616.9848434880496</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>633.3145963994783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3591276561577</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>464.986777147009</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>310.8313464579574</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>45.2298911575539</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.814939781296824</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1602003228720919</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.041459852118678</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>18.1504339579279</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>61.39226537098718</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>144.3312115447905</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>237.1805173643337</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>303.5094038322625</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>320.0081111825669</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>312.399033551943</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>288.5510707340111</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>246.9052897507898</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.9444245260468</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>91.79145844162709</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>35.57707760465004</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.72260118632526</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1113523555701098</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>188.7069902137636</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>80.64189725347245</v>
       </c>
       <c r="L2" t="n">
-        <v>431.4689140110008</v>
+        <v>554.9791258649329</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>634.2954989107312</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>629.7792677178134</v>
       </c>
       <c r="O2" t="n">
-        <v>552.6880856233105</v>
+        <v>378.2899844356039</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>108.7381239641012</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>32.99846259011673</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>260.0081711331173</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>506.9397916541362</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122269</v>
+        <v>644.0790903382723</v>
       </c>
       <c r="N3" t="n">
-        <v>332.8661448343929</v>
+        <v>197.6492430871658</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>552.2285252131358</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>426.0372609745604</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>21.48726855014783</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>100.939803205596</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>185.2555034250115</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>205.8200173552514</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>206.4155889101273</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>174.4801294124305</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>125.5396282084611</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>2.639272596110942</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000359</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>487.5747176873218</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315071</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410131</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692782</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>314.0416846271737</v>
+        <v>357.156385143659</v>
       </c>
       <c r="P5" t="n">
-        <v>524.1263114938092</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.5952546185461</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.662274559733</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>189.6351192551836</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>582.5482980840966</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691795</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407405</v>
+        <v>619.6093268828267</v>
       </c>
       <c r="O6" t="n">
-        <v>635.0794422580011</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289998</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527188</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883267</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452559</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203478</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550914</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632333</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324799</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000445</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944484</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>190.5453525391264</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>407.5425384040844</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>391.4668765743446</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>188.5852654802071</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>196.2971847393735</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>552.6880856233081</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>433.6515619588811</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>247.6524856312113</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>119.8578301584797</v>
       </c>
       <c r="K9" t="n">
-        <v>380.0164378035054</v>
+        <v>332.7559639452612</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>346.0836123757488</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>647.0155045122251</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>161.1235481502614</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>109.7875025528256</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>233.0438950105723</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>102.0686157531405</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>186.6999948493105</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>207.3430310295322</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>207.9023887233367</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>175.8534296854525</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>126.7147238369847</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>3.452847899352889</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>205.2217077364191</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>358.8251701884748</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>482.4288600380099</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>568.7843916337</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>582.6483302399786</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>536.7083354281376</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>423.218651284597</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.1602417448959</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>70.29652700357997</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>103.220716999182</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5130543718729</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>390.160085805653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>474.8508095660313</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>501.972884316145</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>436.7628832117133</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>331.0123697326787</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>170.8495723719359</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.97203142811776</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>214.9110255384508</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>331.0994290925786</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>359.5919881444075</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>356.5312059311716</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>313.1361986480508</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>244.1838490156833</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.7823812743524</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495879.923358856</v>
+        <v>1498791.621709102</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395845</v>
+        <v>11442741.15847844</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>806952.5921640027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10769839.70377805</v>
+        <v>10570497.67802381</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.2258108102156</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>353.926457401955</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359318</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680915987</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5644081416976</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0785727665282</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0187444053789</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370722</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353325</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356349</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0661150959129</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8581620548773</v>
+        <v>225.8573996139465</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>83.67081368426732</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>103.4740412410951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775171</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.6934256929885</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>244.4912320133811</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>71.0083865681446</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.1952120853246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4880739292253</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752157</v>
+        <v>300.4078786665683</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938909</v>
+        <v>63.4110716746178</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281405</v>
+        <v>122.0934231223254</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.3971597168112</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0404798209637</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>117.8142470068485</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.814517215707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.3024922077873</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664352</v>
+        <v>92.52344006174989</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958693</v>
+        <v>19.12450171074272</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183558</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459917</v>
+        <v>133.7720277432331</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.9379658262512</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8071041233812</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.28604738508513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2798525983037</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>197.2126624179115</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>19.34104464821355</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>4.019807611472472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>45.2808584968836</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.9995323676033</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>285.1633523986069</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>88.17328228686392</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>209.6483919174709</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.5060522580949</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.83150686340508</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.828961117725981</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>118.9785049934646</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.727753923763</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7547067582698</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>128.9623517640194</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.6121440986335</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>141.0771644700843</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.7814751363009</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672535</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>68.26984420565722</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672535</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833816</v>
+        <v>151.7477755975574</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>281.6778446725259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>90.00079239153432</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>252.2510378376948</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137239</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3477,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>146.1850499531015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137239</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.45703212904686</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>206.1081217804596</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2114.349404136595</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="C2" t="n">
-        <v>1745.386887196183</v>
+        <v>2062.744643125167</v>
       </c>
       <c r="D2" t="n">
-        <v>1387.121188589432</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991188</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F2" t="n">
-        <v>590.3470312015806</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870187</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870187</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512389</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>319.3563181321766</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>868.7856527384603</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.738196660084</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.21967170072</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291967</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888809</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888809</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924064</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.082546369136</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V2" t="n">
-        <v>2165.082546369136</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W2" t="n">
-        <v>2165.082546369136</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="X2" t="n">
-        <v>2165.082546369136</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="Y2" t="n">
-        <v>2165.082546369136</v>
+        <v>2420.246115248354</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988728</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177458</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564946</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510391</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725566</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679827</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150747</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961286</v>
@@ -4412,49 +4412,49 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>310.109008961399</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>811.9794026989938</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133883</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790177</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751182</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115996</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375423</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.486562480561</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.347004849372</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617629</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889428</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683895</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.345740918941</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.7247774562539</v>
+        <v>603.8534709574102</v>
       </c>
       <c r="C4" t="n">
-        <v>175.788594528347</v>
+        <v>519.3374975389584</v>
       </c>
       <c r="D4" t="n">
-        <v>175.788594528347</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E4" t="n">
-        <v>71.26936095148328</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F4" t="n">
-        <v>71.26936095148328</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G4" t="n">
-        <v>71.26936095148328</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>71.26936095148328</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148328</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131529</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039142</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856131</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066392</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249453</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351322</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221472</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W4" t="n">
-        <v>754.362793184511</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X4" t="n">
-        <v>526.3732422864937</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y4" t="n">
-        <v>526.3732422864937</v>
+        <v>603.8534709574102</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2113.484044838089</v>
+        <v>2261.580218719563</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.521527897677</v>
+        <v>1892.617701779152</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.255829290926</v>
+        <v>1534.352003172401</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.467576692682</v>
+        <v>1148.563750574157</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>737.5778457845493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4576,16 +4576,16 @@
         <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.435042357452</v>
+        <v>1104.666818129292</v>
       </c>
       <c r="N5" t="n">
-        <v>2135.742710417299</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956216</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.830939477471</v>
+        <v>2261.580218719563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2478.830939477471</v>
+        <v>2261.580218719563</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>817.5155100726172</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686616</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.1977120421399</v>
+        <v>220.6921467113112</v>
       </c>
       <c r="C7" t="n">
-        <v>368.1977120421399</v>
+        <v>220.6921467113112</v>
       </c>
       <c r="D7" t="n">
-        <v>368.1977120421399</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="E7" t="n">
-        <v>368.1977120421399</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3077645442295</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961286</v>
@@ -4761,16 +4761,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V7" t="n">
-        <v>508.7989363707505</v>
+        <v>691.7577815785115</v>
       </c>
       <c r="W7" t="n">
-        <v>508.7989363707505</v>
+        <v>402.3406115415509</v>
       </c>
       <c r="X7" t="n">
-        <v>508.7989363707505</v>
+        <v>402.3406115415509</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.1977120421399</v>
+        <v>402.3406115415509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.690691920174</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.690691920174</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.690691920174</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.690691920174</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305659</v>
+        <v>835.8393278935639</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669933</v>
+        <v>420.1948087731342</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3938901395026</v>
+        <v>116.7525070897319</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>241.340818553348</v>
+        <v>193.9926295475604</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733916</v>
+        <v>456.4907949980429</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.360139381993</v>
+        <v>819.0447427728841</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207398</v>
+        <v>1254.125303783476</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.393765099378</v>
+        <v>1700.859731512776</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866453</v>
+        <v>2109.363122473163</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205745</v>
+        <v>2423.510314738926</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980644</v>
+        <v>2611.24902655301</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.830939477471</v>
+        <v>2303.237307446162</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.830939477471</v>
+        <v>2049.661065202764</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.7680521339</v>
+        <v>1718.598177859193</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.999396863786</v>
+        <v>1365.829522589079</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.533638602706</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.690691920174</v>
+        <v>1246.825232683171</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1226039662183</v>
+        <v>931.3052542689253</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6695746850913</v>
+        <v>756.8522249877983</v>
       </c>
       <c r="D9" t="n">
-        <v>642.73516502384</v>
+        <v>607.917815326547</v>
       </c>
       <c r="E9" t="n">
-        <v>483.4977100183844</v>
+        <v>448.6803603210915</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9631520452694</v>
+        <v>302.1458023479764</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5217544044921</v>
+        <v>165.4766182997064</v>
       </c>
       <c r="H9" t="n">
-        <v>98.60577654929665</v>
+        <v>72.01859803531258</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965078</v>
+        <v>242.8655721052432</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023164</v>
+        <v>573.1596342672117</v>
       </c>
       <c r="L9" t="n">
-        <v>843.4113519543077</v>
+        <v>874.7211974695688</v>
       </c>
       <c r="M9" t="n">
-        <v>1483.956701421411</v>
+        <v>1245.986186158958</v>
       </c>
       <c r="N9" t="n">
-        <v>2136.13058072412</v>
+        <v>1641.486099281251</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392879</v>
+        <v>1981.071457409681</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920176</v>
+        <v>2234.285579438483</v>
       </c>
       <c r="Q9" t="n">
-        <v>2635.045976980643</v>
+        <v>2561.609832686965</v>
       </c>
       <c r="R9" t="n">
-        <v>2613.934077382829</v>
+        <v>2561.609832686965</v>
       </c>
       <c r="S9" t="n">
-        <v>2464.467288245464</v>
+        <v>2426.486572340265</v>
       </c>
       <c r="T9" t="n">
-        <v>2267.477992405552</v>
+        <v>2232.609839182435</v>
       </c>
       <c r="U9" t="n">
-        <v>2039.339204916717</v>
+        <v>2004.521855219424</v>
       </c>
       <c r="V9" t="n">
-        <v>1804.187096684975</v>
+        <v>1769.369746987682</v>
       </c>
       <c r="W9" t="n">
-        <v>1549.949739956773</v>
+        <v>1515.13239025948</v>
       </c>
       <c r="X9" t="n">
-        <v>1342.09823975124</v>
+        <v>1307.280890053947</v>
       </c>
       <c r="Y9" t="n">
-        <v>1134.337940986286</v>
+        <v>1099.520591288993</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.7878360902039</v>
+        <v>834.5162300291527</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961286</v>
+        <v>665.5800471012458</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961286</v>
+        <v>515.46340768891</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961286</v>
+        <v>367.5503141065169</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961286</v>
+        <v>220.6603666086066</v>
       </c>
       <c r="G10" t="n">
         <v>52.70091953961286</v>
@@ -4962,52 +4962,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>52.70091953961286</v>
+        <v>80.04222654763832</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7488491352219</v>
+        <v>254.8092295930466</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5818440360393</v>
+        <v>533.9772579209389</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8514447552762</v>
+        <v>838.7099246413408</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6748095913796</v>
+        <v>1141.631346079985</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7697049799775</v>
+        <v>1405.412012516899</v>
       </c>
       <c r="P10" t="n">
-        <v>1049.217281578592</v>
+        <v>1607.601259943067</v>
       </c>
       <c r="Q10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998952</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="W10" t="n">
-        <v>763.2184309619911</v>
+        <v>1464.94682490094</v>
       </c>
       <c r="X10" t="n">
-        <v>535.2288800639737</v>
+        <v>1236.957274002923</v>
       </c>
       <c r="Y10" t="n">
-        <v>314.4363009204436</v>
+        <v>1016.164694859392</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2736.270520058755</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2736.270520058755</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2315.188197917617</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1946.225680977205</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1587.959982370455</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1202.17172977221</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>791.1858249826028</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>377.0448831971449</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>355.3675262255279</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>805.3202796584947</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1400.428219694144</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2094.269905452076</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2803.952483453553</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3460.750356384274</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3986.811144515852</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4333.68814146692</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4450.054644776088</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4360.990723274205</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4360.990723274205</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4149.224670832315</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3818.161783488745</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3465.39312821863</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3091.927369957551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2701.788037981739</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5610703106382</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.1080410295112</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.17363136826</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9361763628044</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.4016183896894</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.5369191390885</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>90.84852836797225</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>406.1445418088421</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>878.9055879604362</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1449.952298293648</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2050.521560762609</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2050.521560762609</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2303.443882434546</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2523.439833161768</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.627131539417</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2433.446823465211</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.812728592723</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.777671261137</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.625563029394</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.388206301193</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.53670609566</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.776407330706</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1012.64413668851</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>843.7079537606032</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>693.5913143482675</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>545.6782207658744</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>398.788273267964</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>231.5032792289402</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>89.00109289552177</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>163.0773209209635</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>414.6441555984383</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>792.0895271587887</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1200.44187281751</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1604.51912883069</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1961.733581043455</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2243.871573386134</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2355.774214771208</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2355.774214771208</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2355.774214771208</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2135.792926754743</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2135.792926754743</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1881.108438548856</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1591.691268511895</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1363.701717613878</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1142.909138470348</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364376</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364376</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>392.982152135665</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>246.0922046377547</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6129,13 +6129,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6411,16 +6411,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
         <v>1505.299220625425</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830887</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
         <v>555.8158034133954</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
         <v>555.8158034133954</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2412.158000621627</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2412.158000621627</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2412.158000621627</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1868.398285759938</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.981115722978</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>210.0515402467368</v>
+        <v>30.21968338400274</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.32812118887243</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>193.5888300519565</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>378.0407240669651</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8224,22 +8224,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>41.666842353276</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>185.2684807830938</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N6" t="n">
-        <v>418.9459514760947</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>250.730860573081</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>141.891033812856</v>
       </c>
       <c r="L9" t="n">
-        <v>207.4678568043425</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384308</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>18.9569194509247</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.4112138219214</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>173.3037948552112</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.024073120185307</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.8810690308108</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>41.2730045785631</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>50.86962841791791</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>83.91241093178658</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>70.33230778539112</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.5599871907452</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.189274705955</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>150.3148091464376</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393068</v>
+        <v>13.79427727960953</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24651,19 +24651,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>4.845153664065094</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.24602870709352</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>33.93343655154939</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>31.91821458107483</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>46.02952154336836</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983721.8266484198</v>
+        <v>983039.0855685622</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>983039.0855685626</v>
+        <v>935147.1361964217</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914139.3643013804</v>
+        <v>773342.912334695</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013802</v>
+        <v>889442.3102639518</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013804</v>
+        <v>909114.1827429081</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013802</v>
+        <v>909114.1827429081</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>490746.0392299043</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062535</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918896</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008498157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.448949315429976e-09</v>
+        <v>304387.9199455889</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765876</v>
+        <v>164729.2128925947</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>261870.5449953583</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43275.07710490203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>43022.56888020187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>68851.9692279509</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11462.59918224118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909049</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216195</v>
+        <v>127544.264980866</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6866.170804203699</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6890.891875482008</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6890.891875482009</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
@@ -26444,7 +26444,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
@@ -26453,13 +26453,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051741</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>86618.07783747552</v>
+        <v>94366.26581059821</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>96398.78631437471</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551697.0430881344</v>
+        <v>-556006.1978049024</v>
       </c>
       <c r="C6" t="n">
-        <v>231734.9688975843</v>
+        <v>236641.2159060825</v>
       </c>
       <c r="D6" t="n">
-        <v>236641.215906085</v>
+        <v>-13147.34457187598</v>
       </c>
       <c r="E6" t="n">
-        <v>-379589.0560453054</v>
+        <v>180142.5180528265</v>
       </c>
       <c r="F6" t="n">
-        <v>396099.2912312823</v>
+        <v>125520.9168482265</v>
       </c>
       <c r="G6" t="n">
-        <v>396099.2912312822</v>
+        <v>351320.8547839812</v>
       </c>
       <c r="H6" t="n">
-        <v>396099.2912312822</v>
+        <v>394595.9318888832</v>
       </c>
       <c r="I6" t="n">
-        <v>396099.2912312822</v>
+        <v>385593.0191027551</v>
       </c>
       <c r="J6" t="n">
-        <v>223738.2988310014</v>
+        <v>224050.9401599226</v>
       </c>
       <c r="K6" t="n">
-        <v>396099.2912312822</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="L6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="M6" t="n">
-        <v>268021.6944155684</v>
+        <v>353389.3636800016</v>
       </c>
       <c r="N6" t="n">
-        <v>396099.2912312823</v>
+        <v>327559.9633322526</v>
       </c>
       <c r="O6" t="n">
-        <v>396099.2912312822</v>
+        <v>384949.3333779623</v>
       </c>
       <c r="P6" t="n">
-        <v>396099.2912312824</v>
+        <v>396411.9325602035</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225519</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380614</v>
+        <v>948.8975669950661</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1319.172280448541</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26798,16 +26798,16 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1112.513661194022</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225519</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915513207</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.324008123650189e-12</v>
+        <v>355.421466657001</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036125</v>
+        <v>140.8791335982322</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>229.3955798552427</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.8687682678451</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544879</v>
+        <v>172.6399611571319</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>281.1122057917294</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.6316291319844</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
         <v>658.7614942451607</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544879</v>
+        <v>172.6399611571318</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>281.1122057917294</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6316291319844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544879</v>
+        <v>172.6399611571319</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>281.1122057917294</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6316291319844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.508030853265</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.34643436905253</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761995</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459281</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.504804251686267</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.57600741436052</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.95992140547406</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097205</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822504</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.04041597049212</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>168.4256719325556</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>181.1292567556834</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>79.38944126677023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.6518631149661</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>251.9168536716205</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.4234214403466</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371354271</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>147.0137000398793</v>
       </c>
       <c r="I10" t="n">
-        <v>123.2665578794172</v>
+        <v>103.9922265400504</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176945</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677916</v>
+        <v>100.3549099614712</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001188</v>
+        <v>194.1963253168159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.6344114530736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2256951695733</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>89.31033591867947</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3641736057188</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956766</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447411</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683762</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>300.731748298453</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844698</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451715</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024201</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105537</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193708</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645662</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602337</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031721</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903405</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.189133888457504</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26494439668247</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111754</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770786</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777943</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555197</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305512</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102907</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704991</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808507</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489535</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361693</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910988</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820288</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908726</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753096</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942307</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577969</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753774</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892106</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314789</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934108</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308987</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983908</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435676</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780533</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776952</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472183</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026218</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139861</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31396,7 +31396,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
         <v>0.08398246702897151</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.385833569198235</v>
+        <v>3.81466358590981</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055143</v>
+        <v>39.06692344919886</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651505</v>
+        <v>147.0648178957881</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937389</v>
+        <v>323.7648035246131</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779002</v>
+        <v>485.2395131161754</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712508</v>
+        <v>601.9825238334629</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074799</v>
+        <v>669.8215473793865</v>
       </c>
       <c r="N8" t="n">
-        <v>425.7102483359644</v>
+        <v>680.6599602928528</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822494</v>
+        <v>642.7278992604621</v>
       </c>
       <c r="P8" t="n">
-        <v>343.085849542668</v>
+        <v>548.5533919833135</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457561</v>
+        <v>411.9407523129183</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411488</v>
+        <v>239.6228614784073</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810484</v>
+        <v>86.92664646391989</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916528</v>
+        <v>16.6986898473202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358588</v>
+        <v>0.3051730868727848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840358</v>
+        <v>2.04102495542335</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985294</v>
+        <v>19.71200417474656</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182814</v>
+        <v>70.27213114067236</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847376</v>
+        <v>192.8320989683087</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070416</v>
+        <v>329.5807709816731</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512805</v>
+        <v>443.1620193782147</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842435</v>
+        <v>517.1491740123109</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900633</v>
+        <v>530.8365738230229</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947058</v>
+        <v>485.6117577054844</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671559</v>
+        <v>389.7462478474641</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607447</v>
+        <v>260.5350451870227</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080756</v>
+        <v>126.7225845130393</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784612</v>
+        <v>37.91114336060474</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308285</v>
+        <v>8.226762868570429</v>
       </c>
       <c r="U9" t="n">
-        <v>0.083982467028971</v>
+        <v>0.1342779575936415</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888307</v>
+        <v>1.711126760155037</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838206958</v>
+        <v>15.21347246756025</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784111</v>
+        <v>51.45824838720786</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490332</v>
+        <v>120.9766619429611</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790233</v>
+        <v>198.8018181343761</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889944</v>
+        <v>254.3978821415953</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676916</v>
+        <v>268.2268975032118</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441081</v>
+        <v>261.8490613971796</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714128</v>
+        <v>241.8599896990048</v>
       </c>
       <c r="P10" t="n">
-        <v>129.4361645720912</v>
+        <v>206.9530037918418</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104727</v>
+        <v>143.283532616255</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937788</v>
+        <v>76.93848141569828</v>
       </c>
       <c r="S10" t="n">
-        <v>18.6507161368535</v>
+        <v>29.82027272015641</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522766</v>
+        <v>7.311177975207883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05837469839390774</v>
+        <v>0.09333418691754758</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.303205147531818</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>54.31144971716024</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>204.4518164502206</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>450.102907890329</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>674.5875817853511</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>836.8855463191281</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>931.196420861547</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>946.2641524869719</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>893.5304063012023</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>762.6075292215104</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>572.686494875527</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>333.1274603486459</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>120.8467872993814</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.21478053332055</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4242564118025454</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.837464905115729</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>27.40393737309139</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>97.69341888227402</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>458.1883570686219</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>616.0907900340096</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>718.9488928444546</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>737.9773307388492</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>389.4515000122464</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>362.1999061337201</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>176.1717245474486</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>52.70466611037327</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.43697477105857</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1866753227049823</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.378835259825237</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.15000803735531</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>71.5380639954717</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>168.1836528696442</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>276.3774056415139</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>353.6679258107449</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>372.8932398651505</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>364.0266720785295</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>336.2375510887528</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>287.7093117883177</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>199.1950143477297</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>106.9610835917784</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>41.45661084622707</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.16411429198056</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1297546505359222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>466.4405777716651</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137636</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347245</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107312</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178134</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>378.2899844356039</v>
+        <v>202.1075877445679</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641012</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011673</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>260.0081711331173</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541362</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382723</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871658</v>
+        <v>578.7040994736972</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131358</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745604</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014783</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.939803205596</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250115</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552514</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101273</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124305</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084611</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110942</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>230.2521078334858</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>357.156385143659</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N6" t="n">
-        <v>619.6093268828267</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391264</v>
+        <v>142.7188989979268</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040844</v>
+        <v>265.1496620711949</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743446</v>
+        <v>366.2161088634757</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802071</v>
+        <v>439.4753141521138</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393735</v>
+        <v>451.2468966962619</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233081</v>
+        <v>412.6296878387753</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588811</v>
+        <v>317.320396228044</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312113</v>
+        <v>189.6350624384689</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>24.03732366427522</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584797</v>
+        <v>192.0855076420509</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452612</v>
+        <v>333.6303658201701</v>
       </c>
       <c r="L9" t="n">
-        <v>346.0836123757488</v>
+        <v>304.6076395983405</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122251</v>
+        <v>375.0151400902926</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451607</v>
+        <v>399.4948617396897</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502614</v>
+        <v>343.01551326104</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528256</v>
+        <v>255.7718404331338</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105723</v>
+        <v>330.6305588368503</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.61748182628834</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531405</v>
+        <v>176.5323263084932</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493105</v>
+        <v>281.9879074019114</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295322</v>
+        <v>307.8107744650524</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233367</v>
+        <v>305.9812337764082</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854525</v>
+        <v>266.4451176130444</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369847</v>
+        <v>204.2315630567353</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899352889</v>
+        <v>57.12148936456059</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>269.0570033636428</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>454.4977307403705</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>601.1191313491408</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>700.8501876342743</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>716.8510888903809</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>663.4321948795156</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>531.3745334662408</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>350.3808050010775</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>117.5419225345137</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>320.3469180942629</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>477.5364102541354</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>576.8148589224363</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>606.6356186555159</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>255.4770925979161</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>222.2181320476986</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.49222058348462</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>74.82447275297147</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>254.107913815631</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>381.257951071061</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>412.4771168269911</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>408.1588444577581</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>360.8226790027924</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>284.9878710532112</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>113.0329710960353</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>324.3065438496467</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
